--- a/src/main/resources/data/imageFileList.xlsx
+++ b/src/main/resources/data/imageFileList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\farming-fam\gardendoctor-backend\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43517CE4-69DE-4711-B03F-155C03E55789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E57C479-FCAE-4EAA-A067-18817B5A6657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="790" windowWidth="20060" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="1340" windowWidth="20060" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>imageName</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>PLANT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default_user.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/default_user.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -403,13 +415,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -421,6 +433,17 @@
       </c>
       <c r="C3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/imageFileList.xlsx
+++ b/src/main/resources/data/imageFileList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\farming-fam\gardendoctor-backend\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E57C479-FCAE-4EAA-A067-18817B5A6657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109BB2D6-5E29-4E33-8A66-43AF5AA66006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4480" yWindow="1340" windowWidth="20060" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,18 +33,12 @@
     <t>imageUrl</t>
   </si>
   <si>
-    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/default_farm.jpg</t>
-  </si>
-  <si>
     <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/default_plant.png</t>
   </si>
   <si>
     <t>default_plant.png</t>
   </si>
   <si>
-    <t>default_farm.jpg</t>
-  </si>
-  <si>
     <t>domainType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,6 +60,14 @@
   </si>
   <si>
     <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/default_user.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default_farm.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/default_farm.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,40 +412,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
